--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/62.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/62.xlsx
@@ -479,13 +479,13 @@
         <v>-2.732231212945167</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.659513659413548</v>
+        <v>-8.788734688461384</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.040009249082201</v>
+        <v>-3.043963124540403</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.426971718580015</v>
+        <v>-5.493559170833033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.432807992910441</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.906853444699436</v>
+        <v>-9.042934840436338</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.129678431245183</v>
+        <v>-3.131445892128816</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.3538904841175</v>
+        <v>-5.433648793029295</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.155574380911735</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.726326864168755</v>
+        <v>-9.854421955172203</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.011978628698066</v>
+        <v>-3.016718042326771</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.225873946931102</v>
+        <v>-5.300146580952214</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.912245703337216</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.49792173214588</v>
+        <v>-10.61446941204293</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.918237740351307</v>
+        <v>-2.919743355178106</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.437078976373828</v>
+        <v>-5.515200747430407</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.686865911302101</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.27591873621261</v>
+        <v>-11.39229621617271</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.766236104358868</v>
+        <v>-2.772900086505306</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.989623342152155</v>
+        <v>-5.069512574092368</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.471057120724341</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.94145285886891</v>
+        <v>-12.0464662199624</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.737851991798006</v>
+        <v>-2.740666836908977</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.123950369308266</v>
+        <v>-5.200906925411931</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.25145974028842</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.44198468881094</v>
+        <v>-12.54689331148169</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.616970759660349</v>
+        <v>-2.618175251521788</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.68374787086091</v>
+        <v>-4.759486842800295</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.017430778156689</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.41518792824781</v>
+        <v>-13.51491199899324</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.361448285098381</v>
+        <v>-2.372275619548489</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.601920978100122</v>
+        <v>-4.665745954453536</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.7594959014457983</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.16334757413824</v>
+        <v>-14.25601489365198</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.336441986670684</v>
+        <v>-2.354810487557626</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.227756055186433</v>
+        <v>-4.276158298792294</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.470272597369798</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.8576716707435</v>
+        <v>-14.95701606470652</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.162602389538246</v>
+        <v>-2.174215262158857</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.013343411547485</v>
+        <v>-4.065411499949029</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1466286558170032</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.51766774929776</v>
+        <v>-15.61854394269326</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.151015701523318</v>
+        <v>-2.166412249665188</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.497087725892542</v>
+        <v>-3.549456937259446</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2107425970199652</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.48682546715653</v>
+        <v>-16.58694230698721</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.984062655685627</v>
+        <v>-1.998307081177425</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.858052424187893</v>
+        <v>-2.911822511958862</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5948243389462018</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.12829593718974</v>
+        <v>-17.21682608900549</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.707016435251862</v>
+        <v>-1.723316352289811</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.492240390487225</v>
+        <v>-2.531229268349885</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9955890554992705</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.03205760235409</v>
+        <v>-18.12029972350732</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.54134643509266</v>
+        <v>-1.554347091814494</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.900101717561638</v>
+        <v>-1.937336226843507</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.398475376094582</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.94587415610088</v>
+        <v>-19.03326527756941</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.376147757835761</v>
+        <v>-1.397121626988206</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.540521620013632</v>
+        <v>-1.56342005768381</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.788392781595086</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.73459375619499</v>
+        <v>-19.81748112548596</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.131452617723901</v>
+        <v>-1.16300506757246</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.014904937826855</v>
+        <v>-1.030458593602826</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.149013812530725</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.71749839203757</v>
+        <v>-20.80299112959404</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.035080176505955</v>
+        <v>-1.065716165155594</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6514233340320144</v>
+        <v>-0.668404050817733</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.465466382275563</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.55629605050128</v>
+        <v>-21.6426528800453</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8819918793776521</v>
+        <v>-0.919946465315816</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2835034395738283</v>
+        <v>-0.2912933597646554</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.723636452502225</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.20323910312233</v>
+        <v>-22.29958535973459</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6267967123867276</v>
+        <v>-0.6767962169392795</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09460226649522049</v>
+        <v>0.06733099967590508</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.914159914749201</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.83405243864238</v>
+        <v>-22.92021288364377</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3264069159861647</v>
+        <v>-0.3799151577002992</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4137271482622934</v>
+        <v>0.3920201101507116</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.031228811553396</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.4636350976953</v>
+        <v>-23.55051561935299</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06048915296786651</v>
+        <v>-0.1160921631366771</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3828685904643451</v>
+        <v>0.3564483233297419</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.07394369347926</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.97090946360082</v>
+        <v>-24.05916467705689</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05329605102957474</v>
+        <v>0.0002853168234258939</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6441516782766722</v>
+        <v>0.6339134974544424</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.044556829913561</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.35162053793537</v>
+        <v>-24.44094932022447</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03189013588335262</v>
+        <v>-0.01659066153955901</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5759145958655959</v>
+        <v>0.55440394229664</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.950882999880537</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.62644106688604</v>
+        <v>-24.70551857605007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3194756601047075</v>
+        <v>0.2693190479180549</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5644326462734022</v>
+        <v>0.5442835921999858</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.804189903495229</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.64147103054835</v>
+        <v>-24.71418568053129</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3309314250912178</v>
+        <v>0.2888920406664354</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4068929661789124</v>
+        <v>0.3927925560183734</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.617918823847221</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61281197962781</v>
+        <v>-24.68011950853712</v>
       </c>
       <c r="F27" t="n">
-        <v>0.149733953761729</v>
+        <v>0.1066602774124502</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3824103598648846</v>
+        <v>0.3681659343730867</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.40565210730587</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72522249182687</v>
+        <v>-24.78151939404629</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2685596943532347</v>
+        <v>0.2243077107482006</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09132919078478897</v>
+        <v>0.08475685475824249</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.18481722002245</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76747135309711</v>
+        <v>-24.82452760888136</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2192278972456109</v>
+        <v>0.1860912787532022</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.006941634345206896</v>
+        <v>-0.01752021504132156</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.972737112710396</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54454871261105</v>
+        <v>-24.58800206574274</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08927369923863798</v>
+        <v>0.05202609765392732</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2022918850466016</v>
+        <v>-0.2191547711067447</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.784763640199882</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07224388759578</v>
+        <v>-24.12428579139164</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08945699147842215</v>
+        <v>0.05611089614054585</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6667675129625172</v>
+        <v>-0.679349215993416</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.631350251383038</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15018236641257</v>
+        <v>-24.20784086812753</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1502707381782397</v>
+        <v>0.1228947329361905</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.731063812218234</v>
+        <v>-0.7424672079933774</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.5249682440038</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73061333724378</v>
+        <v>-23.78213154892597</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06772376876115688</v>
+        <v>0.03733653386551067</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.198328100639437</v>
+        <v>-1.203041329662459</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.473675975070942</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16839057631153</v>
+        <v>-23.22163697196883</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08692251240531144</v>
+        <v>-0.1115622263534399</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.272260334786665</v>
+        <v>-1.285365729931232</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.479939636325926</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82462598059633</v>
+        <v>-22.87186300924928</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2789865950934329</v>
+        <v>-0.3066768156036835</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.297397556242779</v>
+        <v>-1.308814044320764</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.540437531209981</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10084420259719</v>
+        <v>-22.14270029478219</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4071340553082476</v>
+        <v>-0.4330829995405487</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.503274018428921</v>
+        <v>-1.515685521522877</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.654321679638462</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.29091507189949</v>
+        <v>-21.34463279045909</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3440422479139697</v>
+        <v>-0.364767363312422</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.628475710504347</v>
+        <v>-1.628161495236146</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.816009607572011</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.9165930413517</v>
+        <v>-20.9657284539167</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.40252556470796</v>
+        <v>-0.427191463261772</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.878852910049517</v>
+        <v>-1.874008757998078</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.015849304084382</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26252777598475</v>
+        <v>-20.30756529776029</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2520557281480024</v>
+        <v>-0.2730819665118144</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.031744822635194</v>
+        <v>-2.035908174938863</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.241291278047093</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95515978216955</v>
+        <v>-19.99145164564681</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5318644244813718</v>
+        <v>-0.5576169841710471</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.25585886267986</v>
+        <v>-2.255269709051983</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.48461134262582</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42341590225285</v>
+        <v>-19.4687414546909</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2538362813344771</v>
+        <v>-0.2826393475862745</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.095491245171558</v>
+        <v>-2.116019976027384</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.735496206288669</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86115386441208</v>
+        <v>-18.91483230606315</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002419362186627243</v>
+        <v>-0.03062561018588935</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.072553530592854</v>
+        <v>-2.098031151922853</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.982393449391513</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95950006000524</v>
+        <v>-18.02172777541197</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.006012080843444345</v>
+        <v>-0.03893922249038541</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.961386787163758</v>
+        <v>-1.996212312722749</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.214679741385945</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62436329186274</v>
+        <v>-17.68427366966648</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03863267184684155</v>
+        <v>0.015956803324972</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.160599267203462</v>
+        <v>-2.207286419137057</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.427689486093414</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.1099274363028</v>
+        <v>-17.17647561164729</v>
       </c>
       <c r="F45" t="n">
-        <v>0.008808405973389565</v>
+        <v>-0.01838430702887548</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.203437282101589</v>
+        <v>-2.252193017884177</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.616354888967809</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73048631534389</v>
+        <v>-16.80240233485349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03101295159295698</v>
+        <v>-0.003275789549523597</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.144181519439937</v>
+        <v>-2.208477818695654</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>3.775279976255358</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06830382221507</v>
+        <v>-16.13358204418392</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03858030263547464</v>
+        <v>0.01345617348220232</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.436545734198522</v>
+        <v>-2.504599524369814</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.901862161654573</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.4168046482051</v>
+        <v>-15.47434531919448</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01112574357637508</v>
+        <v>-0.01521596974117777</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.37107112768705</v>
+        <v>-2.443550116218845</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.99871796791615</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.87936561655224</v>
+        <v>-14.94782526811163</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1588200119338869</v>
+        <v>0.1300038533792478</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.555999905326431</v>
+        <v>-2.641636658214161</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.068008810473366</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18514625836972</v>
+        <v>-14.24877485018051</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3064619110800317</v>
+        <v>0.2752105841968316</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.472169890230858</v>
+        <v>-2.575559805771969</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.110288223610356</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.4169422968286</v>
+        <v>-13.47504593684018</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3009500515836651</v>
+        <v>0.2729325235023712</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.538403850307151</v>
+        <v>-2.658931590268081</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.128852953737876</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82644016175823</v>
+        <v>-12.8843212326215</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3857358047866831</v>
+        <v>0.3532930783448859</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.547476816176467</v>
+        <v>-2.673699707873548</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.130094628719664</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17947092453149</v>
+        <v>-12.22096043223692</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4356305709165011</v>
+        <v>0.4030176445377615</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.567796070186826</v>
+        <v>-2.699543913683115</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.117674260864728</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80078915713741</v>
+        <v>-11.85770139759039</v>
       </c>
       <c r="F54" t="n">
-        <v>0.326715703576182</v>
+        <v>0.2887742099408598</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.674210307684375</v>
+        <v>-2.8100167650616</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>4.091426065798618</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34490207988567</v>
+        <v>-11.39712727592131</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07639087324237953</v>
+        <v>0.0435291931096471</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.141487688408421</v>
+        <v>-3.283041666733163</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>4.053718210348176</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.9047912275582</v>
+        <v>-10.95454197835676</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1677882393804692</v>
+        <v>0.128367315524032</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.210955447286619</v>
+        <v>-3.354669655580246</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>4.00785163267813</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14749315428424</v>
+        <v>-10.19565973643895</v>
       </c>
       <c r="F57" t="n">
-        <v>0.107197061828961</v>
+        <v>0.06344258573191244</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.574005005087683</v>
+        <v>-3.714694891424871</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.953906668584243</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.845074050943211</v>
+        <v>-9.890740003255152</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.06860638072973668</v>
+        <v>-0.1037853984654546</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.608503223075631</v>
+        <v>-3.75306843105397</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.888283452397291</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.298182376638628</v>
+        <v>-9.351310941570354</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02220183178047533</v>
+        <v>-0.02185376728193289</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.891532625908065</v>
+        <v>-4.0315155278918</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>3.812586476857344</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.938065494674111</v>
+        <v>-8.986389184462922</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1152411634519649</v>
+        <v>-0.1590349164575386</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.806864703430623</v>
+        <v>-3.942121284088495</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.729363000456186</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410092197975825</v>
+        <v>-8.447654014828737</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.139422646800633</v>
+        <v>-0.1765393253569264</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.208706754551721</v>
+        <v>-4.341606720698082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.639179392682852</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.902948755098723</v>
+        <v>-7.945210708671816</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.08447425177390867</v>
+        <v>-0.1213421765762093</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.167020862303665</v>
+        <v>-4.304856626621357</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>3.540073104853351</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.418402626926442</v>
+        <v>-7.468127193119318</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1369220169578633</v>
+        <v>-0.1767880791109192</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.170307030316939</v>
+        <v>-4.304437672930422</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>3.436822236178295</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.070880540295665</v>
+        <v>-7.09739245355016</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.295757835033684</v>
+        <v>-0.3318925908768479</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.416010277747612</v>
+        <v>-4.554330457270447</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>3.334055277799254</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.695065987223918</v>
+        <v>-6.7331514961905</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2425376239820675</v>
+        <v>-0.2803089176804472</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.6980839424726</v>
+        <v>-4.838289413604644</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>3.234919787828889</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.445016095249792</v>
+        <v>-6.48717331040015</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3586663501881777</v>
+        <v>-0.3951284136023848</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.689914345499362</v>
+        <v>-4.826244494990256</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>3.140032608452909</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.284229524050555</v>
+        <v>-6.319107418820913</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.415434575309902</v>
+        <v>-0.4484795476824185</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.803175857383135</v>
+        <v>-4.937031561636942</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>3.056641090459264</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.007942657181609</v>
+        <v>-6.038775030373874</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3835286332846155</v>
+        <v>-0.413614745214902</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.803778103313854</v>
+        <v>-4.929123810720539</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.990115600428805</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.871900538353234</v>
+        <v>-5.902641265425607</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.638056092830612</v>
+        <v>-0.6690324813541358</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.901918005415433</v>
+        <v>-5.027067328279492</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.943213611368064</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.638752809347776</v>
+        <v>-5.668982936609321</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5840634359113337</v>
+        <v>-0.6196483150351452</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.766137732643892</v>
+        <v>-4.890514609640289</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>2.915769193324537</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.515632793424184</v>
+        <v>-5.544003813682204</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6811559537855743</v>
+        <v>-0.7153923257166879</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.741786049358281</v>
+        <v>-4.861724635691334</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>2.9138223384478</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.496648954303681</v>
+        <v>-5.526014989577673</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7762453493250306</v>
+        <v>-0.803280954693195</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.643345024291343</v>
+        <v>-4.752063507089036</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.939834779529815</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.531579218285406</v>
+        <v>-5.564493267629506</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8323196823961434</v>
+        <v>-0.8620915790582285</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.452891294852754</v>
+        <v>-4.567540590837749</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.992991247335811</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.768916484200217</v>
+        <v>-5.80057367247151</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.724465291586004</v>
+        <v>-0.7572615102045279</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.337246983851787</v>
+        <v>-4.464713644318833</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.069731855332423</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.972397054966323</v>
+        <v>-5.994091000775063</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.055556538150415</v>
+        <v>-1.078795375694478</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.170058276562946</v>
+        <v>-4.302709488955314</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>3.172652927823881</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.497751891096265</v>
+        <v>-6.524342358167811</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.969749585325742</v>
+        <v>-0.9891392858343383</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.005147629968564</v>
+        <v>-4.139383011004782</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>3.300345217095774</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.961874026835454</v>
+        <v>-6.988857262992251</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.02950285549538</v>
+        <v>-1.043223588873509</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.926646182129574</v>
+        <v>-4.058538040957123</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.447953699573877</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.536298814016186</v>
+        <v>-7.569697278565428</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.11665831551275</v>
+        <v>-1.134188909017821</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.526322838138117</v>
+        <v>-3.664080048638758</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>3.609692393801716</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.960201395425592</v>
+        <v>-7.996323058965914</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.082696881941313</v>
+        <v>-1.09344566257437</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.319137145667801</v>
+        <v>-3.462956092384162</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.785922256034307</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.433409589336939</v>
+        <v>-8.466533115526506</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.27055833541724</v>
+        <v>-1.279251624504146</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.951976604774436</v>
+        <v>-3.096489443541408</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.972987789362499</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.374706886748518</v>
+        <v>-9.409349120067725</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.193470856285157</v>
+        <v>-1.201810653195337</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.929732782246343</v>
+        <v>-3.081878433570042</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.163999145877234</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19772832028794</v>
+        <v>-10.23153264622528</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.286046529679002</v>
+        <v>-1.291152527787275</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.753248539939876</v>
+        <v>-2.908693451579689</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>4.353923043421838</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.03147234985474</v>
+        <v>-11.0634961226056</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.394437704905652</v>
+        <v>-1.393324859164105</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.380746339487085</v>
+        <v>-2.534515436363158</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>4.542546593522725</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24724977634311</v>
+        <v>-12.27065881382412</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.471538276340577</v>
+        <v>-1.472952245047483</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.27397860981281</v>
+        <v>-2.429436613755465</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>4.726102048603236</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13320590964271</v>
+        <v>-13.15157441052965</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.568761717243235</v>
+        <v>-1.566889517936868</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.929651045075414</v>
+        <v>-2.091576646621882</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>4.896699691538436</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32598016003817</v>
+        <v>-14.33145274262601</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.776222348073226</v>
+        <v>-1.767633797409054</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.685728350831216</v>
+        <v>-1.837638340703763</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.049244110524944</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42644058309661</v>
+        <v>-15.42801165943762</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.819557870479339</v>
+        <v>-1.807931905555887</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.270702350748499</v>
+        <v>-1.427613600306586</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>5.180513493303727</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83713621429259</v>
+        <v>-16.84048784382007</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.839274878558979</v>
+        <v>-1.831786081333511</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.963295080024771</v>
+        <v>-1.115571654376887</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>5.283416321539047</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53108381746932</v>
+        <v>-18.51100022491011</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.068246162957926</v>
+        <v>-2.057287905479401</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7541848190367222</v>
+        <v>-0.911200807017543</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.346969533159642</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.14296886643411</v>
+        <v>-20.12560847286598</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.289715557828564</v>
+        <v>-2.2848321288686</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4639022804299718</v>
+        <v>-0.6141757324473036</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.363440822011263</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96954149739752</v>
+        <v>-21.94889493581612</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.498184295977368</v>
+        <v>-2.488443622663124</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6265217740270513</v>
+        <v>-0.7618961854104989</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.325506903803264</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.6910222134504</v>
+        <v>-23.66740369912392</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.598222581990997</v>
+        <v>-2.593195137699774</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4469084713414114</v>
+        <v>-0.5867866349024128</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>5.223065328590138</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.76870521291812</v>
+        <v>-25.74051748489988</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.77322739407635</v>
+        <v>-2.77922366877786</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4458349025083899</v>
+        <v>-0.5764568079602909</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>5.044735148704024</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.03314991242306</v>
+        <v>-28.00522403046165</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.646585548688333</v>
+        <v>-2.647646025218513</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5806725294753267</v>
+        <v>-0.7164789868525512</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.785455665976399</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.31524303615864</v>
+        <v>-30.28441066296638</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.134967721593241</v>
+        <v>-3.142574349544283</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9633212646304544</v>
+        <v>-1.085249880995449</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.435379368091889</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49757281224028</v>
+        <v>-32.46354591715463</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.195990945138526</v>
+        <v>-3.201581358451943</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.189255134770121</v>
+        <v>-1.303760415423857</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.999813598207244</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.72295008006551</v>
+        <v>-34.68991819999584</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.57329802073423</v>
+        <v>-3.566359100228115</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.423266955763133</v>
+        <v>-1.5317890540182</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.460171342648317</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.23028318189015</v>
+        <v>-37.19170016541558</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.823177712771413</v>
+        <v>-3.809352240970551</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.850390243671604</v>
+        <v>-1.950140499022715</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.848106988385648</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.76407582775792</v>
+        <v>-39.71695662983055</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.722707380764008</v>
+        <v>-3.696771528834548</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.327133359350217</v>
+        <v>-2.42499832309212</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.13285630220729</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.33155496883746</v>
+        <v>-42.29412407501296</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.903433529191194</v>
+        <v>-3.88687176609641</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.688677302324483</v>
+        <v>-2.775021039565666</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.390701486931598</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.58165050442786</v>
+        <v>-44.55267723823913</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.148744007536616</v>
+        <v>-4.120438448792804</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.295885215820896</v>
+        <v>-3.374897263470713</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.5252058193000453</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89092324886288</v>
+        <v>-46.86164885970878</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.294225676713875</v>
+        <v>-4.259203766612258</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.577631572974841</v>
+        <v>-3.639073750211061</v>
       </c>
     </row>
   </sheetData>
